--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -2838,7 +2838,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -204,7 +204,7 @@
     <t>SocialUpdatePath</t>
   </si>
   <si>
-    <t>SocialUpdate</t>
+    <t>SocialUpdateFilePath</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2838,7 +2838,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
